--- a/Fiona_Promotion_etl_data.xlsx
+++ b/Fiona_Promotion_etl_data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SharedFloder\Computer\DA coop from 朱子宇\20241217\Promotion\Promotion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\precision\Documents\My Tableau Repository\Repository app\ETL_scheduler\etl_shceduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101F0C57-EC41-45C7-A166-5692B2F22523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A27EA6-89D6-45DB-8C69-6364BAEC6C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="2460" windowWidth="21600" windowHeight="11835" tabRatio="389" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="3075" windowWidth="21600" windowHeight="11835" tabRatio="389" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ShampooSalesData" sheetId="1" r:id="rId1"/>
+    <sheet name="Shampoo_Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ShampooSalesData!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shampoo_Data!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>

--- a/Fiona_Promotion_etl_data.xlsx
+++ b/Fiona_Promotion_etl_data.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\precision\Documents\My Tableau Repository\Repository app\ETL_scheduler\etl_shceduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A27EA6-89D6-45DB-8C69-6364BAEC6C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83291B8E-02B7-4B90-98FE-7E43C129355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30105" yWindow="3075" windowWidth="21600" windowHeight="11835" tabRatio="389" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29175" yWindow="900" windowWidth="21600" windowHeight="11835" tabRatio="389" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shampoo_Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Shampoo_Data_Copy" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shampoo_Data!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Shampoo_Data_Copy!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="14">
   <si>
     <t>Price</t>
   </si>
@@ -111,7 +113,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -149,11 +166,30 @@
     <tableColumn id="3" xr3:uid="{FE71362F-EFC6-49C4-8830-D1ED4DDD691C}" name="Product"/>
     <tableColumn id="4" xr3:uid="{DCD011F3-00A0-4F75-B14D-16D2489BD7D4}" name="Price"/>
     <tableColumn id="5" xr3:uid="{F68B1132-BBC4-4900-914E-2DBEC7895BA0}" name="OnFlyer"/>
-    <tableColumn id="6" xr3:uid="{4B0B3D00-2BFF-4370-A03B-3E2AA6B37688}" name="Discount" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{0C567635-DC7D-4D1D-8C46-B88690DDFD78}" name="Units" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{0B2573C9-5D7E-428D-AC1D-4526DD931E62}" name="Sales " dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{8ACC519C-1CC3-4D71-A19A-2ACC2E4E0C4B}" name="GrossMargin " dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{414AAF93-BE66-47F1-9168-EA9D664ED400}" name="Transactions" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4B0B3D00-2BFF-4370-A03B-3E2AA6B37688}" name="Discount" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{0C567635-DC7D-4D1D-8C46-B88690DDFD78}" name="Units" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{0B2573C9-5D7E-428D-AC1D-4526DD931E62}" name="Sales " dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8ACC519C-1CC3-4D71-A19A-2ACC2E4E0C4B}" name="GrossMargin " dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{414AAF93-BE66-47F1-9168-EA9D664ED400}" name="Transactions" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B397A822-0B0D-48F8-9CD1-D4A4FF535CA9}" name="Table22" displayName="Table22" ref="A1:J135" totalsRowShown="0">
+  <autoFilter ref="A1:J135" xr:uid="{86816220-1EDC-48F3-8A19-2B0879925B62}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{93D07AD6-810F-4916-A3D9-7218E7E79EB2}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{EF650313-4972-42DE-8543-F538D8C466EF}" name="weeknumber"/>
+    <tableColumn id="3" xr3:uid="{28CE7014-5C10-494E-B510-BC21985DEEB1}" name="Product"/>
+    <tableColumn id="4" xr3:uid="{7DCF81A5-7897-40A3-9D56-988504B5D3FC}" name="Price"/>
+    <tableColumn id="5" xr3:uid="{05589D01-50B4-429C-B1A7-DAFB1571835B}" name="OnFlyer"/>
+    <tableColumn id="6" xr3:uid="{E108B642-FC9F-4025-9F0C-219DBD324B64}" name="Discount" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{C01AFAB1-632A-4A98-9035-81E58BC43C68}" name="Units" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D5126C24-F33A-4C2A-AF72-4F8DB7D74300}" name="Sales " dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{C999745D-49CB-4B44-BE8F-881E301852DC}" name="GrossMargin " dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{5D14FD3F-6CFB-41E0-8510-8E547173D0B1}" name="Transactions" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,6 +484,4356 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>7.99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8630</v>
+      </c>
+      <c r="H2" s="2">
+        <v>68953.7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>33570.699999999997</v>
+      </c>
+      <c r="J2" s="2">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>7.29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10183</v>
+      </c>
+      <c r="H3" s="2">
+        <v>74234.070000000007</v>
+      </c>
+      <c r="I3" s="2">
+        <v>32483.770000000011</v>
+      </c>
+      <c r="J3" s="2">
+        <v>9983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5.49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>21568</v>
+      </c>
+      <c r="H4" s="2">
+        <v>118408.32000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>29979.520000000011</v>
+      </c>
+      <c r="J4" s="2">
+        <v>17117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>7.49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9309</v>
+      </c>
+      <c r="H5" s="2">
+        <v>69724.41</v>
+      </c>
+      <c r="I5" s="2">
+        <v>31557.510000000013</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>7.99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8462</v>
+      </c>
+      <c r="H6" s="2">
+        <v>67611.38</v>
+      </c>
+      <c r="I6" s="2">
+        <v>32917.180000000015</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3.99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>57742</v>
+      </c>
+      <c r="H7" s="2">
+        <v>230390.58000000002</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-6351.6199999999671</v>
+      </c>
+      <c r="J7" s="2">
+        <v>26187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>7.99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8884</v>
+      </c>
+      <c r="H8" s="2">
+        <v>70983.16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>34558.76</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>7.99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8463</v>
+      </c>
+      <c r="H9" s="2">
+        <v>67619.37</v>
+      </c>
+      <c r="I9" s="2">
+        <v>32921.07</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4.79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>33108</v>
+      </c>
+      <c r="H10" s="2">
+        <v>158587.32</v>
+      </c>
+      <c r="I10" s="2">
+        <v>22844.520000000011</v>
+      </c>
+      <c r="J10" s="2">
+        <v>22205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>7.99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8463</v>
+      </c>
+      <c r="H11" s="2">
+        <v>67619.37</v>
+      </c>
+      <c r="I11" s="2">
+        <v>32921.07</v>
+      </c>
+      <c r="J11" s="2">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>7.99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8463</v>
+      </c>
+      <c r="H12" s="2">
+        <v>67619.37</v>
+      </c>
+      <c r="I12" s="2">
+        <v>32921.07</v>
+      </c>
+      <c r="J12" s="2">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3.99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>58297</v>
+      </c>
+      <c r="H13" s="2">
+        <v>232605.03</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-6412.6699999999664</v>
+      </c>
+      <c r="J13" s="2">
+        <v>26439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2021</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>6.79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>13243</v>
+      </c>
+      <c r="H14" s="2">
+        <v>89919.97</v>
+      </c>
+      <c r="I14" s="2">
+        <v>35623.669999999991</v>
+      </c>
+      <c r="J14" s="2">
+        <v>12012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2021</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>7.99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>8627</v>
+      </c>
+      <c r="H15" s="2">
+        <v>68929.73</v>
+      </c>
+      <c r="I15" s="2">
+        <v>33559.030000000013</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2021</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4.79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>32162</v>
+      </c>
+      <c r="H16" s="2">
+        <v>154055.98000000001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>22191.780000000013</v>
+      </c>
+      <c r="J16" s="2">
+        <v>22205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>7.99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8627</v>
+      </c>
+      <c r="H17" s="2">
+        <v>68929.73</v>
+      </c>
+      <c r="I17" s="2">
+        <v>33559.030000000013</v>
+      </c>
+      <c r="J17" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2021</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>7.99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>8714</v>
+      </c>
+      <c r="H18" s="2">
+        <v>69624.86</v>
+      </c>
+      <c r="I18" s="2">
+        <v>33897.46</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2021</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5.49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>21995</v>
+      </c>
+      <c r="H19" s="2">
+        <v>120752.55</v>
+      </c>
+      <c r="I19" s="2">
+        <v>30573.050000000014</v>
+      </c>
+      <c r="J19" s="2">
+        <v>17795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>6.79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>13113</v>
+      </c>
+      <c r="H20" s="2">
+        <v>89037.27</v>
+      </c>
+      <c r="I20" s="2">
+        <v>35273.969999999994</v>
+      </c>
+      <c r="J20" s="2">
+        <v>11894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>6.49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>14099</v>
+      </c>
+      <c r="H21" s="2">
+        <v>91502.510000000009</v>
+      </c>
+      <c r="I21" s="2">
+        <v>33696.610000000008</v>
+      </c>
+      <c r="J21" s="2">
+        <v>12691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2021</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>7.99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>8462</v>
+      </c>
+      <c r="H22" s="2">
+        <v>67611.38</v>
+      </c>
+      <c r="I22" s="2">
+        <v>32917.180000000015</v>
+      </c>
+      <c r="J22" s="2">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2021</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3.99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>55014</v>
+      </c>
+      <c r="H23" s="2">
+        <v>219505.86000000002</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-6051.539999999969</v>
+      </c>
+      <c r="J23" s="2">
+        <v>25683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>7.99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>8545</v>
+      </c>
+      <c r="H24" s="2">
+        <v>68274.55</v>
+      </c>
+      <c r="I24" s="2">
+        <v>33240.049999999996</v>
+      </c>
+      <c r="J24" s="2">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2021</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4.49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G25" s="2">
+        <v>42285</v>
+      </c>
+      <c r="H25" s="2">
+        <v>189859.65000000002</v>
+      </c>
+      <c r="I25" s="2">
+        <v>16491.150000000023</v>
+      </c>
+      <c r="J25" s="2">
+        <v>23917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>6.79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>13118</v>
+      </c>
+      <c r="H26" s="2">
+        <v>89071.22</v>
+      </c>
+      <c r="I26" s="2">
+        <v>35287.420000000006</v>
+      </c>
+      <c r="J26" s="2">
+        <v>12247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2021</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>7.49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="2">
+        <v>9585</v>
+      </c>
+      <c r="H27" s="2">
+        <v>71791.650000000009</v>
+      </c>
+      <c r="I27" s="2">
+        <v>32493.150000000012</v>
+      </c>
+      <c r="J27" s="2">
+        <v>9217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2021</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>7.99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>8798</v>
+      </c>
+      <c r="H28" s="2">
+        <v>70296.02</v>
+      </c>
+      <c r="I28" s="2">
+        <v>34224.220000000008</v>
+      </c>
+      <c r="J28" s="2">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3.99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="2">
+        <v>54474</v>
+      </c>
+      <c r="H29" s="2">
+        <v>217351.26</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-5992.1399999999694</v>
+      </c>
+      <c r="J29" s="2">
+        <v>25432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>6.49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>14378</v>
+      </c>
+      <c r="H30" s="2">
+        <v>93313.22</v>
+      </c>
+      <c r="I30" s="2">
+        <v>34363.420000000006</v>
+      </c>
+      <c r="J30" s="2">
+        <v>12691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>5.49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>21363</v>
+      </c>
+      <c r="H31" s="2">
+        <v>117282.87000000001</v>
+      </c>
+      <c r="I31" s="2">
+        <v>29694.570000000011</v>
+      </c>
+      <c r="J31" s="2">
+        <v>17117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>5.49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>18339</v>
+      </c>
+      <c r="H32" s="2">
+        <v>100681.11</v>
+      </c>
+      <c r="I32" s="2">
+        <v>25491.210000000028</v>
+      </c>
+      <c r="J32" s="2">
+        <v>14838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2021</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>7.99</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>8714</v>
+      </c>
+      <c r="H33" s="2">
+        <v>69624.86</v>
+      </c>
+      <c r="I33" s="2">
+        <v>33897.46</v>
+      </c>
+      <c r="J33" s="2">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>7.99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>8627</v>
+      </c>
+      <c r="H34" s="2">
+        <v>68929.73</v>
+      </c>
+      <c r="I34" s="2">
+        <v>33559.030000000006</v>
+      </c>
+      <c r="J34" s="2">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2021</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>3.99</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>55014</v>
+      </c>
+      <c r="H35" s="2">
+        <v>219505.86000000002</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-6051.539999999969</v>
+      </c>
+      <c r="J35" s="2">
+        <v>25683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>6.79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G36" s="2">
+        <v>13246</v>
+      </c>
+      <c r="H36" s="2">
+        <v>89940.34</v>
+      </c>
+      <c r="I36" s="2">
+        <v>35631.740000000005</v>
+      </c>
+      <c r="J36" s="2">
+        <v>12130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2021</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>7.99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8798</v>
+      </c>
+      <c r="H37" s="2">
+        <v>70296.02</v>
+      </c>
+      <c r="I37" s="2">
+        <v>34224.219999999994</v>
+      </c>
+      <c r="J37" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2021</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>4.79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>31846</v>
+      </c>
+      <c r="H38" s="2">
+        <v>152542.34</v>
+      </c>
+      <c r="I38" s="2">
+        <v>21973.740000000013</v>
+      </c>
+      <c r="J38" s="2">
+        <v>22205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2021</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>7.99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>8798</v>
+      </c>
+      <c r="H39" s="2">
+        <v>70296.02</v>
+      </c>
+      <c r="I39" s="2">
+        <v>34224.219999999994</v>
+      </c>
+      <c r="J39" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2021</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>7.99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>8969</v>
+      </c>
+      <c r="H40" s="2">
+        <v>71662.31</v>
+      </c>
+      <c r="I40" s="2">
+        <v>34889.410000000003</v>
+      </c>
+      <c r="J40" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2021</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>5.29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G41" s="2">
+        <v>27673</v>
+      </c>
+      <c r="H41" s="2">
+        <v>146390.17000000001</v>
+      </c>
+      <c r="I41" s="2">
+        <v>32930.87000000001</v>
+      </c>
+      <c r="J41" s="2">
+        <v>21494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2021</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>7.99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>8547</v>
+      </c>
+      <c r="H42" s="2">
+        <v>68290.53</v>
+      </c>
+      <c r="I42" s="2">
+        <v>33247.829999999994</v>
+      </c>
+      <c r="J42" s="2">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>5.29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G43" s="2">
+        <v>28211</v>
+      </c>
+      <c r="H43" s="2">
+        <v>149236.19</v>
+      </c>
+      <c r="I43" s="2">
+        <v>33571.090000000011</v>
+      </c>
+      <c r="J43" s="2">
+        <v>21494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2021</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>6.49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>14239</v>
+      </c>
+      <c r="H44" s="2">
+        <v>92411.11</v>
+      </c>
+      <c r="I44" s="2">
+        <v>34031.210000000006</v>
+      </c>
+      <c r="J44" s="2">
+        <v>12447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2021</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>7.99</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>8464</v>
+      </c>
+      <c r="H45" s="2">
+        <v>67627.360000000001</v>
+      </c>
+      <c r="I45" s="2">
+        <v>32924.959999999999</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>4.49</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G46" s="2">
+        <v>43529</v>
+      </c>
+      <c r="H46" s="2">
+        <v>195445.21000000002</v>
+      </c>
+      <c r="I46" s="2">
+        <v>16976.310000000023</v>
+      </c>
+      <c r="J46" s="2">
+        <v>24620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2021</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>4.49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G47" s="2">
+        <v>37355</v>
+      </c>
+      <c r="H47" s="2">
+        <v>167723.95000000001</v>
+      </c>
+      <c r="I47" s="2">
+        <v>14568.449999999955</v>
+      </c>
+      <c r="J47" s="2">
+        <v>20927</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2021</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>6.79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G48" s="2">
+        <v>12863</v>
+      </c>
+      <c r="H48" s="2">
+        <v>87339.77</v>
+      </c>
+      <c r="I48" s="2">
+        <v>34601.470000000008</v>
+      </c>
+      <c r="J48" s="2">
+        <v>11894</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2021</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>7.49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G49" s="2">
+        <v>9219</v>
+      </c>
+      <c r="H49" s="2">
+        <v>69050.31</v>
+      </c>
+      <c r="I49" s="2">
+        <v>31252.410000000022</v>
+      </c>
+      <c r="J49" s="2">
+        <v>9127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>7.99</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>8545</v>
+      </c>
+      <c r="H50" s="2">
+        <v>68274.55</v>
+      </c>
+      <c r="I50" s="2">
+        <v>33240.05000000001</v>
+      </c>
+      <c r="J50" s="2">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2021</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>3.99</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>56076</v>
+      </c>
+      <c r="H51" s="2">
+        <v>223743.24000000002</v>
+      </c>
+      <c r="I51" s="2">
+        <v>-6168.3599999999678</v>
+      </c>
+      <c r="J51" s="2">
+        <v>26439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2021</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>5.49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G52" s="2">
+        <v>21576</v>
+      </c>
+      <c r="H52" s="2">
+        <v>118452.24</v>
+      </c>
+      <c r="I52" s="2">
+        <v>29990.640000000014</v>
+      </c>
+      <c r="J52" s="2">
+        <v>17456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2021</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>7.99</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8714</v>
+      </c>
+      <c r="H53" s="2">
+        <v>69624.86</v>
+      </c>
+      <c r="I53" s="2">
+        <v>33897.46</v>
+      </c>
+      <c r="J53" s="2">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2022</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>5.49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G54" s="2">
+        <v>21157</v>
+      </c>
+      <c r="H54" s="2">
+        <v>116151.93000000001</v>
+      </c>
+      <c r="I54" s="2">
+        <v>29408.23000000001</v>
+      </c>
+      <c r="J54" s="2">
+        <v>17117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2022</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>5.49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="2">
+        <v>18338</v>
+      </c>
+      <c r="H55" s="2">
+        <v>100675.62000000001</v>
+      </c>
+      <c r="I55" s="2">
+        <v>25489.820000000011</v>
+      </c>
+      <c r="J55" s="2">
+        <v>14694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2022</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>7.99</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>8381</v>
+      </c>
+      <c r="H56" s="2">
+        <v>66964.19</v>
+      </c>
+      <c r="I56" s="2">
+        <v>32602.089999999997</v>
+      </c>
+      <c r="J56" s="2">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2022</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>4.79</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G57" s="2">
+        <v>33436</v>
+      </c>
+      <c r="H57" s="2">
+        <v>160158.44</v>
+      </c>
+      <c r="I57" s="2">
+        <v>23070.840000000015</v>
+      </c>
+      <c r="J57" s="2">
+        <v>22641</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2022</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>7.99</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>8714</v>
+      </c>
+      <c r="H58" s="2">
+        <v>69624.86</v>
+      </c>
+      <c r="I58" s="2">
+        <v>33897.46</v>
+      </c>
+      <c r="J58" s="2">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2022</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>3.99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>57742</v>
+      </c>
+      <c r="H59" s="2">
+        <v>230390.58000000002</v>
+      </c>
+      <c r="I59" s="2">
+        <v>-6351.6199999999671</v>
+      </c>
+      <c r="J59" s="2">
+        <v>26187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2022</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>7.99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>8630</v>
+      </c>
+      <c r="H60" s="2">
+        <v>68953.7</v>
+      </c>
+      <c r="I60" s="2">
+        <v>33570.699999999997</v>
+      </c>
+      <c r="J60" s="2">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2022</v>
+      </c>
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>7.99</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>8381</v>
+      </c>
+      <c r="H61" s="2">
+        <v>66964.19</v>
+      </c>
+      <c r="I61" s="2">
+        <v>32602.089999999997</v>
+      </c>
+      <c r="J61" s="2">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2022</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>4.79</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G62" s="2">
+        <v>32471</v>
+      </c>
+      <c r="H62" s="2">
+        <v>155536.09</v>
+      </c>
+      <c r="I62" s="2">
+        <v>22404.990000000013</v>
+      </c>
+      <c r="J62" s="2">
+        <v>22641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2022</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>7.99</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>8713</v>
+      </c>
+      <c r="H63" s="2">
+        <v>69616.87</v>
+      </c>
+      <c r="I63" s="2">
+        <v>33893.57</v>
+      </c>
+      <c r="J63" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2022</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>7.99</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8883</v>
+      </c>
+      <c r="H64" s="2">
+        <v>70975.17</v>
+      </c>
+      <c r="I64" s="2">
+        <v>34554.869999999995</v>
+      </c>
+      <c r="J64" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2022</v>
+      </c>
+      <c r="B65">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>3.99</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>55008</v>
+      </c>
+      <c r="H65" s="2">
+        <v>219481.92</v>
+      </c>
+      <c r="I65" s="2">
+        <v>-6050.8799999999683</v>
+      </c>
+      <c r="J65" s="2">
+        <v>25935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2022</v>
+      </c>
+      <c r="B66">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>7.99</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>8798</v>
+      </c>
+      <c r="H66" s="2">
+        <v>70296.02</v>
+      </c>
+      <c r="I66" s="2">
+        <v>34224.219999999994</v>
+      </c>
+      <c r="J66" s="2">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2022</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>6.79</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G67" s="2">
+        <v>13118</v>
+      </c>
+      <c r="H67" s="2">
+        <v>89071.22</v>
+      </c>
+      <c r="I67" s="2">
+        <v>35287.420000000006</v>
+      </c>
+      <c r="J67" s="2">
+        <v>12247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2022</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>6.79</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G68" s="2">
+        <v>11477</v>
+      </c>
+      <c r="H68" s="2">
+        <v>77928.83</v>
+      </c>
+      <c r="I68" s="2">
+        <v>30873.130000000005</v>
+      </c>
+      <c r="J68" s="2">
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2021</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>4.99</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>10980</v>
+      </c>
+      <c r="H69" s="2">
+        <v>54790.200000000004</v>
+      </c>
+      <c r="I69" s="2">
+        <v>24046.199999999993</v>
+      </c>
+      <c r="J69" s="2">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2021</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>3.99</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G70" s="2">
+        <v>23510</v>
+      </c>
+      <c r="H70" s="2">
+        <v>93804.900000000009</v>
+      </c>
+      <c r="I70" s="2">
+        <v>27976.90000000002</v>
+      </c>
+      <c r="J70" s="2">
+        <v>17558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2021</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>2.99</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G71" s="2">
+        <v>57084</v>
+      </c>
+      <c r="H71" s="2">
+        <v>170681.16</v>
+      </c>
+      <c r="I71" s="2">
+        <v>10845.960000000023</v>
+      </c>
+      <c r="J71" s="2">
+        <v>21955</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2021</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>4.99</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>11195</v>
+      </c>
+      <c r="H72" s="2">
+        <v>55863.05</v>
+      </c>
+      <c r="I72" s="2">
+        <v>24517.05</v>
+      </c>
+      <c r="J72" s="2">
+        <v>10765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2021</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>3.99</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>23058</v>
+      </c>
+      <c r="H73" s="2">
+        <v>92001.42</v>
+      </c>
+      <c r="I73" s="2">
+        <v>27439.020000000019</v>
+      </c>
+      <c r="J73" s="2">
+        <v>17220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2021</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>3.99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>19409</v>
+      </c>
+      <c r="H74" s="2">
+        <v>77441.91</v>
+      </c>
+      <c r="I74" s="2">
+        <v>23096.710000000006</v>
+      </c>
+      <c r="J74" s="2">
+        <v>14003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2021</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>4.99</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>11086</v>
+      </c>
+      <c r="H75" s="2">
+        <v>55319.14</v>
+      </c>
+      <c r="I75" s="2">
+        <v>24278.34</v>
+      </c>
+      <c r="J75" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2021</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>2.99</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G76" s="2">
+        <v>56536</v>
+      </c>
+      <c r="H76" s="2">
+        <v>169042.64</v>
+      </c>
+      <c r="I76" s="2">
+        <v>10741.840000000022</v>
+      </c>
+      <c r="J76" s="2">
+        <v>21955</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2021</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>4.99</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>11084</v>
+      </c>
+      <c r="H77" s="2">
+        <v>55309.16</v>
+      </c>
+      <c r="I77" s="2">
+        <v>24273.96</v>
+      </c>
+      <c r="J77" s="2">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2021</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>3.49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G78" s="2">
+        <v>36966</v>
+      </c>
+      <c r="H78" s="2">
+        <v>129011.34000000001</v>
+      </c>
+      <c r="I78" s="2">
+        <v>25506.540000000048</v>
+      </c>
+      <c r="J78" s="2">
+        <v>21529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2021</v>
+      </c>
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>3.49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G79" s="2">
+        <v>32354</v>
+      </c>
+      <c r="H79" s="2">
+        <v>112915.46</v>
+      </c>
+      <c r="I79" s="2">
+        <v>22324.260000000013</v>
+      </c>
+      <c r="J79" s="2">
+        <v>17654</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2021</v>
+      </c>
+      <c r="B80">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>4.99</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>11084</v>
+      </c>
+      <c r="H80" s="2">
+        <v>55309.16</v>
+      </c>
+      <c r="I80" s="2">
+        <v>24273.96</v>
+      </c>
+      <c r="J80" s="2">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2021</v>
+      </c>
+      <c r="B81">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>3.49</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G81" s="2">
+        <v>36965</v>
+      </c>
+      <c r="H81" s="2">
+        <v>129007.85</v>
+      </c>
+      <c r="I81" s="2">
+        <v>25505.850000000031</v>
+      </c>
+      <c r="J81" s="2">
+        <v>21111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2021</v>
+      </c>
+      <c r="B82">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>4.99</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>11413</v>
+      </c>
+      <c r="H82" s="2">
+        <v>56950.87</v>
+      </c>
+      <c r="I82" s="2">
+        <v>24994.47</v>
+      </c>
+      <c r="J82" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2021</v>
+      </c>
+      <c r="B83">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>4.29</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G83" s="2">
+        <v>15645</v>
+      </c>
+      <c r="H83" s="2">
+        <v>67117.05</v>
+      </c>
+      <c r="I83" s="2">
+        <v>23577.603324295655</v>
+      </c>
+      <c r="J83" s="2">
+        <v>12559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2021</v>
+      </c>
+      <c r="B84">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>3.29</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G84" s="2">
+        <v>47837</v>
+      </c>
+      <c r="H84" s="2">
+        <v>157383.73000000001</v>
+      </c>
+      <c r="I84" s="2">
+        <v>23440.130000000012</v>
+      </c>
+      <c r="J84" s="2">
+        <v>21529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2021</v>
+      </c>
+      <c r="B85">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>4.99</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>11412</v>
+      </c>
+      <c r="H85" s="2">
+        <v>56945.880000000005</v>
+      </c>
+      <c r="I85" s="2">
+        <v>24992.28</v>
+      </c>
+      <c r="J85" s="2">
+        <v>10974</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2021</v>
+      </c>
+      <c r="B86">
+        <v>18</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>3.99</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G86" s="2">
+        <v>23738</v>
+      </c>
+      <c r="H86" s="2">
+        <v>94714.62000000001</v>
+      </c>
+      <c r="I86" s="2">
+        <v>28248.220000000008</v>
+      </c>
+      <c r="J86" s="2">
+        <v>17558</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2021</v>
+      </c>
+      <c r="B87">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>3.29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G87" s="2">
+        <v>49250</v>
+      </c>
+      <c r="H87" s="2">
+        <v>162032.5</v>
+      </c>
+      <c r="I87" s="2">
+        <v>24132.499999999989</v>
+      </c>
+      <c r="J87" s="2">
+        <v>21320</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2021</v>
+      </c>
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>4.99</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>10662</v>
+      </c>
+      <c r="H88" s="2">
+        <v>53203.380000000005</v>
+      </c>
+      <c r="I88" s="2">
+        <v>23349.78</v>
+      </c>
+      <c r="J88" s="2">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2021</v>
+      </c>
+      <c r="B89">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>2.99</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G89" s="2">
+        <v>57649</v>
+      </c>
+      <c r="H89" s="2">
+        <v>172370.51</v>
+      </c>
+      <c r="I89" s="2">
+        <v>10953.309999999998</v>
+      </c>
+      <c r="J89" s="2">
+        <v>22608</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2021</v>
+      </c>
+      <c r="B90">
+        <v>22</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>4.99</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>11303</v>
+      </c>
+      <c r="H90" s="2">
+        <v>56401.97</v>
+      </c>
+      <c r="I90" s="2">
+        <v>24753.569999999996</v>
+      </c>
+      <c r="J90" s="2">
+        <v>10974</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2021</v>
+      </c>
+      <c r="B91">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>3.49</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G91" s="2">
+        <v>36969</v>
+      </c>
+      <c r="H91" s="2">
+        <v>129021.81000000001</v>
+      </c>
+      <c r="I91" s="2">
+        <v>25508.61000000003</v>
+      </c>
+      <c r="J91" s="2">
+        <v>21320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2021</v>
+      </c>
+      <c r="B92">
+        <v>24</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>3.49</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G92" s="2">
+        <v>32040</v>
+      </c>
+      <c r="H92" s="2">
+        <v>111819.6</v>
+      </c>
+      <c r="I92" s="2">
+        <v>22107.600000000013</v>
+      </c>
+      <c r="J92" s="2">
+        <v>17482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2021</v>
+      </c>
+      <c r="B93">
+        <v>25</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>4.99</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>11086</v>
+      </c>
+      <c r="H93" s="2">
+        <v>55319.14</v>
+      </c>
+      <c r="I93" s="2">
+        <v>24278.34</v>
+      </c>
+      <c r="J93" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2021</v>
+      </c>
+      <c r="B94">
+        <v>26</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>3.49</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G94" s="2">
+        <v>37694</v>
+      </c>
+      <c r="H94" s="2">
+        <v>131552.06</v>
+      </c>
+      <c r="I94" s="2">
+        <v>26008.860000000015</v>
+      </c>
+      <c r="J94" s="2">
+        <v>21320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2021</v>
+      </c>
+      <c r="B95">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>4.99</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>11086</v>
+      </c>
+      <c r="H95" s="2">
+        <v>55319.14</v>
+      </c>
+      <c r="I95" s="2">
+        <v>24278.34</v>
+      </c>
+      <c r="J95" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2021</v>
+      </c>
+      <c r="B96">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>3.99</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>23274</v>
+      </c>
+      <c r="H96" s="2">
+        <v>92863.260000000009</v>
+      </c>
+      <c r="I96" s="2">
+        <v>27696.060000000019</v>
+      </c>
+      <c r="J96" s="2">
+        <v>17051</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2021</v>
+      </c>
+      <c r="B97">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>3.99</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G97" s="2">
+        <v>19407</v>
+      </c>
+      <c r="H97" s="2">
+        <v>77433.930000000008</v>
+      </c>
+      <c r="I97" s="2">
+        <v>23094.330000000009</v>
+      </c>
+      <c r="J97" s="2">
+        <v>13866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2021</v>
+      </c>
+      <c r="B98">
+        <v>30</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>4.99</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>10978</v>
+      </c>
+      <c r="H98" s="2">
+        <v>54780.22</v>
+      </c>
+      <c r="I98" s="2">
+        <v>24041.82</v>
+      </c>
+      <c r="J98" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2021</v>
+      </c>
+      <c r="B99">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>3.49</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G99" s="2">
+        <v>37325</v>
+      </c>
+      <c r="H99" s="2">
+        <v>130264.25000000001</v>
+      </c>
+      <c r="I99" s="2">
+        <v>25754.250000000047</v>
+      </c>
+      <c r="J99" s="2">
+        <v>21738</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2021</v>
+      </c>
+      <c r="B100">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>3.49</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G100" s="2">
+        <v>31731</v>
+      </c>
+      <c r="H100" s="2">
+        <v>110741.19</v>
+      </c>
+      <c r="I100" s="2">
+        <v>21894.390000000025</v>
+      </c>
+      <c r="J100" s="2">
+        <v>17482</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2021</v>
+      </c>
+      <c r="B101">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>4.99</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <v>11523</v>
+      </c>
+      <c r="H101" s="2">
+        <v>57499.770000000004</v>
+      </c>
+      <c r="I101" s="2">
+        <v>25235.37</v>
+      </c>
+      <c r="J101" s="2">
+        <v>10974</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2021</v>
+      </c>
+      <c r="B102">
+        <v>34</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>2.99</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G102" s="2">
+        <v>57649</v>
+      </c>
+      <c r="H102" s="2">
+        <v>172370.51</v>
+      </c>
+      <c r="I102" s="2">
+        <v>10953.309999999998</v>
+      </c>
+      <c r="J102" s="2">
+        <v>22608</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2021</v>
+      </c>
+      <c r="B103">
+        <v>35</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>4.99</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <v>11413</v>
+      </c>
+      <c r="H103" s="2">
+        <v>56950.87</v>
+      </c>
+      <c r="I103" s="2">
+        <v>24994.47</v>
+      </c>
+      <c r="J103" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2021</v>
+      </c>
+      <c r="B104">
+        <v>36</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>4.29</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G104" s="2">
+        <v>15493</v>
+      </c>
+      <c r="H104" s="2">
+        <v>66464.97</v>
+      </c>
+      <c r="I104" s="2">
+        <v>23348.533608393267</v>
+      </c>
+      <c r="J104" s="2">
+        <v>12802</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2021</v>
+      </c>
+      <c r="B105">
+        <v>37</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>4.99</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>10662</v>
+      </c>
+      <c r="H105" s="2">
+        <v>53203.380000000005</v>
+      </c>
+      <c r="I105" s="2">
+        <v>23349.78</v>
+      </c>
+      <c r="J105" s="2">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2021</v>
+      </c>
+      <c r="B106">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>4.99</v>
+      </c>
+      <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2">
+        <v>9516</v>
+      </c>
+      <c r="H106" s="2">
+        <v>47484.840000000004</v>
+      </c>
+      <c r="I106" s="2">
+        <v>20840.040000000005</v>
+      </c>
+      <c r="J106" s="2">
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2021</v>
+      </c>
+      <c r="B107">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="2">
+        <v>77200</v>
+      </c>
+      <c r="H107" s="2">
+        <v>192228.00000000003</v>
+      </c>
+      <c r="I107" s="2">
+        <v>-23931.999999999971</v>
+      </c>
+      <c r="J107" s="2">
+        <v>22396</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2021</v>
+      </c>
+      <c r="B108">
+        <v>40</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>4.99</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2">
+        <v>11086</v>
+      </c>
+      <c r="H108" s="2">
+        <v>55319.14</v>
+      </c>
+      <c r="I108" s="2">
+        <v>24278.34</v>
+      </c>
+      <c r="J108" s="2">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2021</v>
+      </c>
+      <c r="B109">
+        <v>41</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>3.99</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G109" s="2">
+        <v>23281</v>
+      </c>
+      <c r="H109" s="2">
+        <v>92891.19</v>
+      </c>
+      <c r="I109" s="2">
+        <v>27704.390000000021</v>
+      </c>
+      <c r="J109" s="2">
+        <v>17558</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2021</v>
+      </c>
+      <c r="B110">
+        <v>42</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>2.99</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G110" s="2">
+        <v>57655</v>
+      </c>
+      <c r="H110" s="2">
+        <v>172388.45</v>
+      </c>
+      <c r="I110" s="2">
+        <v>10954.450000000023</v>
+      </c>
+      <c r="J110" s="2">
+        <v>22390</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2021</v>
+      </c>
+      <c r="B111">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>4.99</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>11412</v>
+      </c>
+      <c r="H111" s="2">
+        <v>56945.880000000005</v>
+      </c>
+      <c r="I111" s="2">
+        <v>24992.28</v>
+      </c>
+      <c r="J111" s="2">
+        <v>10974</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2021</v>
+      </c>
+      <c r="B112">
+        <v>44</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>3.99</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G112" s="2">
+        <v>23505</v>
+      </c>
+      <c r="H112" s="2">
+        <v>93784.950000000012</v>
+      </c>
+      <c r="I112" s="2">
+        <v>27970.950000000019</v>
+      </c>
+      <c r="J112" s="2">
+        <v>17727</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2021</v>
+      </c>
+      <c r="B113">
+        <v>45</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>3.29</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G113" s="2">
+        <v>49259</v>
+      </c>
+      <c r="H113" s="2">
+        <v>162062.11000000002</v>
+      </c>
+      <c r="I113" s="2">
+        <v>24136.910000000011</v>
+      </c>
+      <c r="J113" s="2">
+        <v>21529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2021</v>
+      </c>
+      <c r="B114">
+        <v>46</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>4.99</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>11303</v>
+      </c>
+      <c r="H114" s="2">
+        <v>56401.97</v>
+      </c>
+      <c r="I114" s="2">
+        <v>24753.569999999996</v>
+      </c>
+      <c r="J114" s="2">
+        <v>10974</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2021</v>
+      </c>
+      <c r="B115">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>2.99</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G115" s="2">
+        <v>55987</v>
+      </c>
+      <c r="H115" s="2">
+        <v>167401.13</v>
+      </c>
+      <c r="I115" s="2">
+        <v>10637.530000000022</v>
+      </c>
+      <c r="J115" s="2">
+        <v>22173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2021</v>
+      </c>
+      <c r="B116">
+        <v>48</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>4.99</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>10873</v>
+      </c>
+      <c r="H116" s="2">
+        <v>54256.270000000004</v>
+      </c>
+      <c r="I116" s="2">
+        <v>23811.869999999995</v>
+      </c>
+      <c r="J116" s="2">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2021</v>
+      </c>
+      <c r="B117">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>3.29</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G117" s="2">
+        <v>48780</v>
+      </c>
+      <c r="H117" s="2">
+        <v>160486.20000000001</v>
+      </c>
+      <c r="I117" s="2">
+        <v>23902.200000000012</v>
+      </c>
+      <c r="J117" s="2">
+        <v>21738</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2021</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>3.29</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G118" s="2">
+        <v>41452</v>
+      </c>
+      <c r="H118" s="2">
+        <v>136377.07999999999</v>
+      </c>
+      <c r="I118" s="2">
+        <v>20311.479999999989</v>
+      </c>
+      <c r="J118" s="2">
+        <v>17997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2021</v>
+      </c>
+      <c r="B119">
+        <v>51</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>4.99</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="2">
+        <v>11195</v>
+      </c>
+      <c r="H119" s="2">
+        <v>55863.05</v>
+      </c>
+      <c r="I119" s="2">
+        <v>24517.05</v>
+      </c>
+      <c r="J119" s="2">
+        <v>10765</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2021</v>
+      </c>
+      <c r="B120">
+        <v>52</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>3.29</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G120" s="2">
+        <v>47373</v>
+      </c>
+      <c r="H120" s="2">
+        <v>155857.17000000001</v>
+      </c>
+      <c r="I120" s="2">
+        <v>23212.770000000011</v>
+      </c>
+      <c r="J120" s="2">
+        <v>21111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2022</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>3.29</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G121" s="2">
+        <v>41463</v>
+      </c>
+      <c r="H121" s="2">
+        <v>136413.26999999999</v>
+      </c>
+      <c r="I121" s="2">
+        <v>20316.869999999992</v>
+      </c>
+      <c r="J121" s="2">
+        <v>17825</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2022</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>4.99</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="2">
+        <v>11413</v>
+      </c>
+      <c r="H122" s="2">
+        <v>56950.87</v>
+      </c>
+      <c r="I122" s="2">
+        <v>24994.47</v>
+      </c>
+      <c r="J122" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2022</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123">
+        <v>4.29</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G123" s="2">
+        <v>15493</v>
+      </c>
+      <c r="H123" s="2">
+        <v>66464.97</v>
+      </c>
+      <c r="I123" s="2">
+        <v>23348.533608393267</v>
+      </c>
+      <c r="J123" s="2">
+        <v>12802</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2022</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>4.99</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="1">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2">
+        <v>10978</v>
+      </c>
+      <c r="H124" s="2">
+        <v>54780.22</v>
+      </c>
+      <c r="I124" s="2">
+        <v>24041.82</v>
+      </c>
+      <c r="J124" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2022</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>4.99</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="2">
+        <v>9701</v>
+      </c>
+      <c r="H125" s="2">
+        <v>48407.990000000005</v>
+      </c>
+      <c r="I125" s="2">
+        <v>21245.190000000002</v>
+      </c>
+      <c r="J125" s="2">
+        <v>9239</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2022</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>4.99</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="1">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <v>9608</v>
+      </c>
+      <c r="H126" s="2">
+        <v>47943.920000000006</v>
+      </c>
+      <c r="I126" s="2">
+        <v>21041.520000000004</v>
+      </c>
+      <c r="J126" s="2">
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2022</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127">
+        <v>4.99</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="1">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>9701</v>
+      </c>
+      <c r="H127" s="2">
+        <v>48407.990000000005</v>
+      </c>
+      <c r="I127" s="2">
+        <v>21245.190000000002</v>
+      </c>
+      <c r="J127" s="2">
+        <v>9239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2022</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128">
+        <v>4.29</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G128" s="2">
+        <v>15797</v>
+      </c>
+      <c r="H128" s="2">
+        <v>67769.13</v>
+      </c>
+      <c r="I128" s="2">
+        <v>23806.673040198046</v>
+      </c>
+      <c r="J128" s="2">
+        <v>12681</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2022</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129">
+        <v>3.49</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G129" s="2">
+        <v>38802</v>
+      </c>
+      <c r="H129" s="2">
+        <v>135418.98000000001</v>
+      </c>
+      <c r="I129" s="2">
+        <v>26773.380000000034</v>
+      </c>
+      <c r="J129" s="2">
+        <v>21738</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2022</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>4.99</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>10978</v>
+      </c>
+      <c r="H130" s="2">
+        <v>54780.22</v>
+      </c>
+      <c r="I130" s="2">
+        <v>24041.82</v>
+      </c>
+      <c r="J130" s="2">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2022</v>
+      </c>
+      <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>4.29</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G131" s="2">
+        <v>14757</v>
+      </c>
+      <c r="H131" s="2">
+        <v>63307.53</v>
+      </c>
+      <c r="I131" s="2">
+        <v>22239.353931392201</v>
+      </c>
+      <c r="J131" s="2">
+        <v>12315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2022</v>
+      </c>
+      <c r="B132">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132">
+        <v>4.99</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <v>10873</v>
+      </c>
+      <c r="H132" s="2">
+        <v>54256.270000000004</v>
+      </c>
+      <c r="I132" s="2">
+        <v>23811.869999999995</v>
+      </c>
+      <c r="J132" s="2">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2022</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133">
+        <v>4.49</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G133" s="2">
+        <v>12630</v>
+      </c>
+      <c r="H133" s="2">
+        <v>56708.700000000004</v>
+      </c>
+      <c r="I133" s="2">
+        <v>21339.947227788911</v>
+      </c>
+      <c r="J133" s="2">
+        <v>11254</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2022</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134">
+        <v>4.99</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>10767</v>
+      </c>
+      <c r="H134" s="2">
+        <v>53727.33</v>
+      </c>
+      <c r="I134" s="2">
+        <v>23579.73</v>
+      </c>
+      <c r="J134" s="2">
+        <v>10556</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2022</v>
+      </c>
+      <c r="B135">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>4.79</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G135" s="2">
+        <v>11529</v>
+      </c>
+      <c r="H135" s="2">
+        <v>55223.91</v>
+      </c>
+      <c r="I135" s="2">
+        <v>22942.710000000003</v>
+      </c>
+      <c r="J135" s="2">
+        <v>11303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBC2782-00FA-4BC4-B576-04DD63BAB1BE}">
+  <dimension ref="A1:J135"/>
+  <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
